--- a/Test_DotNetMVC/Document/属性チェック.xlsx
+++ b/Test_DotNetMVC/Document/属性チェック.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASP.NET\20231216\Test_DotNetMVC\Test_DotNetMVC\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F7D05D-4B5D-4186-9FA6-CDAAB1F62BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86561FE-F6B9-4C80-A3FA-D208AF69EC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="郵便番号チェック" sheetId="9" r:id="rId2"/>
-    <sheet name="数値チェック" sheetId="3" r:id="rId3"/>
+    <sheet name="郵便番号チェック" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="日時チェック" sheetId="4" r:id="rId3"/>
     <sheet name="固定桁数チェック" sheetId="8" r:id="rId4"/>
-    <sheet name="電話番号チェック（携帯）" sheetId="7" r:id="rId5"/>
-    <sheet name="全角チェック" sheetId="6" r:id="rId6"/>
-    <sheet name="半角チェック" sheetId="5" r:id="rId7"/>
-    <sheet name="日時チェック" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
+    <sheet name="半角チェック" sheetId="5" r:id="rId5"/>
+    <sheet name="数値チェック" sheetId="3" r:id="rId6"/>
+    <sheet name="電話番号チェック（携帯）" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="範囲数値チェック" sheetId="10" r:id="rId8"/>
+    <sheet name="全角チェック" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="198">
   <si>
     <t>チェック名</t>
   </si>
@@ -607,6 +608,28 @@
   </si>
   <si>
     <t>範囲数値チェック</t>
+  </si>
+  <si>
+    <t>・最小数値
+・最大数値</t>
+  </si>
+  <si>
+    <t>「範囲数値チェック」シート</t>
+  </si>
+  <si>
+    <t>[RangeNumber]</t>
+  </si>
+  <si>
+    <t>RangeNumberAttribute.cs</t>
+  </si>
+  <si>
+    <t>最小数値</t>
+  </si>
+  <si>
+    <t>入力値 &gt; 引数.最大桁数　又は　入力値  &lt; 引数.最小数値</t>
+  </si>
+  <si>
+    <t>範囲以外の場合</t>
   </si>
 </sst>
 </file>
@@ -622,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +661,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -858,6 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,6 +914,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -945,47 +1013,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1005,9 +1037,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1027,10 +1056,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1041,35 +1097,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,7 +1431,7 @@
   <dimension ref="B3:BX28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:AB23"/>
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,182 +1440,182 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="52" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="61" t="s">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61" t="s">
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61" t="s">
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
     </row>
     <row r="4" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61" t="s">
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BX4" s="61"/>
+      <c r="BX4" s="20"/>
     </row>
     <row r="5" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+      <c r="B5" s="103">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1560,16 +1637,16 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="24"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="26"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
@@ -1616,20 +1693,20 @@
       <c r="BR5" s="6"/>
       <c r="BS5" s="6"/>
       <c r="BT5" s="7"/>
-      <c r="BU5" s="20" t="s">
+      <c r="BU5" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20" t="s">
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX5" s="20"/>
+      <c r="BX5" s="22"/>
     </row>
     <row r="6" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+      <c r="B6" s="103">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1651,16 +1728,16 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="22" t="s">
+      <c r="U6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
@@ -1707,20 +1784,20 @@
       <c r="BR6" s="6"/>
       <c r="BS6" s="6"/>
       <c r="BT6" s="7"/>
-      <c r="BU6" s="20" t="s">
+      <c r="BU6" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="BV6" s="20"/>
-      <c r="BW6" s="20" t="s">
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX6" s="20"/>
+      <c r="BX6" s="22"/>
     </row>
     <row r="7" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+      <c r="B7" s="103">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
@@ -1742,16 +1819,16 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="24"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="5" t="s">
         <v>170</v>
       </c>
@@ -1800,20 +1877,20 @@
       <c r="BR7" s="6"/>
       <c r="BS7" s="6"/>
       <c r="BT7" s="7"/>
-      <c r="BU7" s="20" t="s">
+      <c r="BU7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BV7" s="20"/>
-      <c r="BW7" s="20" t="s">
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX7" s="20"/>
+      <c r="BX7" s="22"/>
     </row>
     <row r="8" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="B8" s="22">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>165</v>
       </c>
@@ -1835,16 +1912,16 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="22" t="s">
+      <c r="U8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="26"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
@@ -1891,20 +1968,20 @@
       <c r="BR8" s="6"/>
       <c r="BS8" s="6"/>
       <c r="BT8" s="7"/>
-      <c r="BU8" s="20" t="s">
+      <c r="BU8" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="BV8" s="20"/>
-      <c r="BW8" s="20" t="s">
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX8" s="20"/>
+      <c r="BX8" s="22"/>
     </row>
     <row r="9" spans="2:76" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
+      <c r="B9" s="103">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1926,16 +2003,16 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="24"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="26"/>
       <c r="AC9" s="5" t="s">
         <v>68</v>
       </c>
@@ -1984,20 +2061,20 @@
       <c r="BR9" s="6"/>
       <c r="BS9" s="6"/>
       <c r="BT9" s="7"/>
-      <c r="BU9" s="20" t="s">
+      <c r="BU9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BV9" s="20"/>
-      <c r="BW9" s="20" t="s">
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX9" s="20"/>
+      <c r="BX9" s="22"/>
     </row>
     <row r="10" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="B10" s="103">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
@@ -2019,16 +2096,16 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="22" t="s">
+      <c r="U10" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="24"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="26"/>
       <c r="AC10" s="5" t="s">
         <v>69</v>
       </c>
@@ -2077,30 +2154,30 @@
       <c r="BR10" s="6"/>
       <c r="BS10" s="6"/>
       <c r="BT10" s="7"/>
-      <c r="BU10" s="20" t="s">
+      <c r="BU10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BV10" s="20"/>
-      <c r="BW10" s="20" t="s">
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX10" s="20"/>
+      <c r="BX10" s="22"/>
     </row>
     <row r="11" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="2" t="s">
         <v>103</v>
       </c>
@@ -2112,45 +2189,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="22" t="s">
+      <c r="U11" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="31" t="s">
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="33"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="44"/>
       <c r="BD11" s="5" t="s">
         <v>108</v>
       </c>
@@ -2170,28 +2247,28 @@
       <c r="BR11" s="6"/>
       <c r="BS11" s="6"/>
       <c r="BT11" s="7"/>
-      <c r="BU11" s="20" t="s">
+      <c r="BU11" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="BV11" s="20"/>
-      <c r="BW11" s="20" t="s">
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX11" s="20"/>
+      <c r="BX11" s="22"/>
     </row>
     <row r="12" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+      <c r="B12" s="22">
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="2" t="s">
         <v>104</v>
       </c>
@@ -2203,43 +2280,43 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="22" t="s">
+      <c r="U12" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="36"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="47"/>
       <c r="BD12" s="5" t="s">
         <v>108</v>
       </c>
@@ -2259,30 +2336,30 @@
       <c r="BR12" s="6"/>
       <c r="BS12" s="6"/>
       <c r="BT12" s="7"/>
-      <c r="BU12" s="20" t="s">
+      <c r="BU12" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="BV12" s="20"/>
-      <c r="BW12" s="20" t="s">
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BX12" s="20"/>
+      <c r="BX12" s="22"/>
     </row>
     <row r="13" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+      <c r="B13" s="22">
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="17" t="s">
         <v>111</v>
       </c>
@@ -2294,45 +2371,45 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="58" t="s">
+      <c r="U13" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="43" t="s">
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="45"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="55"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
+      <c r="BC13" s="56"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
@@ -2350,24 +2427,24 @@
       <c r="BR13" s="6"/>
       <c r="BS13" s="6"/>
       <c r="BT13" s="7"/>
-      <c r="BU13" s="20"/>
-      <c r="BV13" s="20"/>
-      <c r="BW13" s="20"/>
-      <c r="BX13" s="20"/>
+      <c r="BU13" s="22"/>
+      <c r="BV13" s="22"/>
+      <c r="BW13" s="22"/>
+      <c r="BX13" s="22"/>
     </row>
     <row r="14" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
+      <c r="B14" s="22">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="17" t="s">
         <v>112</v>
       </c>
@@ -2379,43 +2456,43 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="58" t="s">
+      <c r="U14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="48"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="59"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
@@ -2433,16 +2510,16 @@
       <c r="BR14" s="6"/>
       <c r="BS14" s="6"/>
       <c r="BT14" s="7"/>
-      <c r="BU14" s="20"/>
-      <c r="BV14" s="20"/>
-      <c r="BW14" s="20"/>
-      <c r="BX14" s="20"/>
+      <c r="BU14" s="22"/>
+      <c r="BV14" s="22"/>
+      <c r="BW14" s="22"/>
+      <c r="BX14" s="22"/>
     </row>
     <row r="15" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
+      <c r="B15" s="22">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>114</v>
       </c>
@@ -2464,16 +2541,16 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="22" t="s">
+      <c r="U15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="24"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="26"/>
       <c r="AC15" s="5" t="s">
         <v>116</v>
       </c>
@@ -2522,20 +2599,20 @@
       <c r="BR15" s="6"/>
       <c r="BS15" s="6"/>
       <c r="BT15" s="7"/>
-      <c r="BU15" s="20" t="s">
+      <c r="BU15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BV15" s="20"/>
-      <c r="BW15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX15" s="20"/>
+      <c r="BV15" s="22"/>
+      <c r="BW15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX15" s="22"/>
     </row>
     <row r="16" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
+      <c r="B16" s="22">
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="2" t="s">
         <v>129</v>
       </c>
@@ -2557,16 +2634,16 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="22" t="s">
+      <c r="U16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="24"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="26"/>
       <c r="AC16" s="5" t="s">
         <v>132</v>
       </c>
@@ -2615,206 +2692,206 @@
       <c r="BR16" s="6"/>
       <c r="BS16" s="6"/>
       <c r="BT16" s="7"/>
-      <c r="BU16" s="20" t="s">
+      <c r="BU16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BV16" s="20"/>
-      <c r="BW16" s="20" t="s">
+      <c r="BV16" s="22"/>
+      <c r="BW16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX16" s="22"/>
+    </row>
+    <row r="17" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B17" s="89">
+        <v>13</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="101"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="101"/>
+      <c r="AQ17" s="101"/>
+      <c r="AR17" s="101"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="101"/>
+      <c r="AU17" s="101"/>
+      <c r="AV17" s="101"/>
+      <c r="AW17" s="101"/>
+      <c r="AX17" s="101"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="101"/>
+      <c r="BA17" s="101"/>
+      <c r="BB17" s="101"/>
+      <c r="BC17" s="102"/>
+      <c r="BD17" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE17" s="101"/>
+      <c r="BF17" s="101"/>
+      <c r="BG17" s="101"/>
+      <c r="BH17" s="101"/>
+      <c r="BI17" s="101"/>
+      <c r="BJ17" s="101"/>
+      <c r="BK17" s="101"/>
+      <c r="BL17" s="101"/>
+      <c r="BM17" s="101"/>
+      <c r="BN17" s="101"/>
+      <c r="BO17" s="101"/>
+      <c r="BP17" s="101"/>
+      <c r="BQ17" s="101"/>
+      <c r="BR17" s="101"/>
+      <c r="BS17" s="101"/>
+      <c r="BT17" s="102"/>
+      <c r="BU17" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV17" s="89"/>
+      <c r="BW17" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BX16" s="20"/>
-    </row>
-    <row r="17" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="22" t="s">
+      <c r="BX17" s="89"/>
+    </row>
+    <row r="18" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B18" s="89">
         <v>14</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="5" t="s">
+      <c r="C18" s="90"/>
+      <c r="D18" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="101"/>
+      <c r="AJ18" s="101"/>
+      <c r="AK18" s="101"/>
+      <c r="AL18" s="101"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="101"/>
+      <c r="AO18" s="101"/>
+      <c r="AP18" s="101"/>
+      <c r="AQ18" s="101"/>
+      <c r="AR18" s="101"/>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="101"/>
+      <c r="AU18" s="101"/>
+      <c r="AV18" s="101"/>
+      <c r="AW18" s="101"/>
+      <c r="AX18" s="101"/>
+      <c r="AY18" s="101"/>
+      <c r="AZ18" s="101"/>
+      <c r="BA18" s="101"/>
+      <c r="BB18" s="101"/>
+      <c r="BC18" s="102"/>
+      <c r="BD18" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="7"/>
-      <c r="BU17" s="20" t="s">
+      <c r="BE18" s="101"/>
+      <c r="BF18" s="101"/>
+      <c r="BG18" s="101"/>
+      <c r="BH18" s="101"/>
+      <c r="BI18" s="101"/>
+      <c r="BJ18" s="101"/>
+      <c r="BK18" s="101"/>
+      <c r="BL18" s="101"/>
+      <c r="BM18" s="101"/>
+      <c r="BN18" s="101"/>
+      <c r="BO18" s="101"/>
+      <c r="BP18" s="101"/>
+      <c r="BQ18" s="101"/>
+      <c r="BR18" s="101"/>
+      <c r="BS18" s="101"/>
+      <c r="BT18" s="102"/>
+      <c r="BU18" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="BV17" s="20"/>
-      <c r="BW17" s="20" t="s">
+      <c r="BV18" s="89"/>
+      <c r="BW18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BX17" s="20"/>
-    </row>
-    <row r="18" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
-        <v>14</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="7"/>
-      <c r="BU18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="BV18" s="20"/>
-      <c r="BW18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX18" s="20"/>
-    </row>
-    <row r="19" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="BX18" s="89"/>
+    </row>
+    <row r="19" spans="2:76" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="103">
         <v>15</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="2" t="s">
         <v>190</v>
       </c>
@@ -2836,15 +2913,19 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="5"/>
+      <c r="U19" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
@@ -2871,7 +2952,9 @@
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="7"/>
-      <c r="BD19" s="5"/>
+      <c r="BD19" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
@@ -2888,16 +2971,20 @@
       <c r="BR19" s="6"/>
       <c r="BS19" s="6"/>
       <c r="BT19" s="7"/>
-      <c r="BU19" s="20"/>
-      <c r="BV19" s="20"/>
-      <c r="BW19" s="20"/>
-      <c r="BX19" s="20"/>
+      <c r="BU19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV19" s="22"/>
+      <c r="BW19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX19" s="22"/>
     </row>
     <row r="20" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="B20" s="22">
         <v>16</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2915,14 +3002,14 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="26"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
@@ -2967,16 +3054,16 @@
       <c r="BR20" s="6"/>
       <c r="BS20" s="6"/>
       <c r="BT20" s="7"/>
-      <c r="BU20" s="20"/>
-      <c r="BV20" s="20"/>
-      <c r="BW20" s="20"/>
-      <c r="BX20" s="20"/>
+      <c r="BU20" s="22"/>
+      <c r="BV20" s="22"/>
+      <c r="BW20" s="22"/>
+      <c r="BX20" s="22"/>
     </row>
     <row r="21" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+      <c r="B21" s="22">
         <v>17</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2994,14 +3081,14 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="26"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -3046,16 +3133,16 @@
       <c r="BR21" s="6"/>
       <c r="BS21" s="6"/>
       <c r="BT21" s="7"/>
-      <c r="BU21" s="20"/>
-      <c r="BV21" s="20"/>
-      <c r="BW21" s="20"/>
-      <c r="BX21" s="20"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="22"/>
+      <c r="BW21" s="22"/>
+      <c r="BX21" s="22"/>
     </row>
     <row r="22" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="B22" s="22">
         <v>18</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3073,14 +3160,14 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="26"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -3125,16 +3212,16 @@
       <c r="BR22" s="6"/>
       <c r="BS22" s="6"/>
       <c r="BT22" s="7"/>
-      <c r="BU22" s="20"/>
-      <c r="BV22" s="20"/>
-      <c r="BW22" s="20"/>
-      <c r="BX22" s="20"/>
+      <c r="BU22" s="22"/>
+      <c r="BV22" s="22"/>
+      <c r="BW22" s="22"/>
+      <c r="BX22" s="22"/>
     </row>
     <row r="23" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+      <c r="B23" s="22">
         <v>19</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3152,14 +3239,14 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -3204,16 +3291,16 @@
       <c r="BR23" s="6"/>
       <c r="BS23" s="6"/>
       <c r="BT23" s="7"/>
-      <c r="BU23" s="20"/>
-      <c r="BV23" s="20"/>
-      <c r="BW23" s="20"/>
-      <c r="BX23" s="20"/>
+      <c r="BU23" s="22"/>
+      <c r="BV23" s="22"/>
+      <c r="BW23" s="22"/>
+      <c r="BX23" s="22"/>
     </row>
     <row r="24" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+      <c r="B24" s="22">
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3231,14 +3318,14 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="26"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -3283,16 +3370,16 @@
       <c r="BR24" s="6"/>
       <c r="BS24" s="6"/>
       <c r="BT24" s="7"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
-      <c r="BX24" s="20"/>
+      <c r="BU24" s="22"/>
+      <c r="BV24" s="22"/>
+      <c r="BW24" s="22"/>
+      <c r="BX24" s="22"/>
     </row>
     <row r="25" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B25" s="20">
+      <c r="B25" s="22">
         <v>21</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3310,14 +3397,14 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="26"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
@@ -3362,16 +3449,16 @@
       <c r="BR25" s="6"/>
       <c r="BS25" s="6"/>
       <c r="BT25" s="7"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="20"/>
-      <c r="BW25" s="20"/>
-      <c r="BX25" s="20"/>
+      <c r="BU25" s="22"/>
+      <c r="BV25" s="22"/>
+      <c r="BW25" s="22"/>
+      <c r="BX25" s="22"/>
     </row>
     <row r="26" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
+      <c r="B26" s="22">
         <v>22</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3389,14 +3476,14 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="26"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
@@ -3441,16 +3528,16 @@
       <c r="BR26" s="6"/>
       <c r="BS26" s="6"/>
       <c r="BT26" s="7"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
-      <c r="BW26" s="20"/>
-      <c r="BX26" s="20"/>
+      <c r="BU26" s="22"/>
+      <c r="BV26" s="22"/>
+      <c r="BW26" s="22"/>
+      <c r="BX26" s="22"/>
     </row>
     <row r="27" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+      <c r="B27" s="22">
         <v>23</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3468,14 +3555,14 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="26"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
@@ -3520,16 +3607,16 @@
       <c r="BR27" s="6"/>
       <c r="BS27" s="6"/>
       <c r="BT27" s="7"/>
-      <c r="BU27" s="20"/>
-      <c r="BV27" s="20"/>
-      <c r="BW27" s="20"/>
-      <c r="BX27" s="20"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
+      <c r="BW27" s="22"/>
+      <c r="BX27" s="22"/>
     </row>
     <row r="28" spans="2:76" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
+      <c r="B28" s="22">
         <v>24</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3547,14 +3634,14 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="26"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
@@ -3599,105 +3686,14 @@
       <c r="BR28" s="6"/>
       <c r="BS28" s="6"/>
       <c r="BT28" s="7"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="20"/>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="22"/>
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="110">
-    <mergeCell ref="D3:K4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BU3:BX3"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BD3:BT4"/>
-    <mergeCell ref="AC3:BC4"/>
-    <mergeCell ref="L3:T4"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="BU13:BV13"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="BU10:BV10"/>
-    <mergeCell ref="BW10:BX10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="BU16:BV16"/>
-    <mergeCell ref="BW16:BX16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="BU17:BV17"/>
-    <mergeCell ref="BW17:BX17"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="BU14:BV14"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="BU15:BV15"/>
-    <mergeCell ref="BW15:BX15"/>
-    <mergeCell ref="U14:AB14"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="BU21:BV21"/>
-    <mergeCell ref="BW21:BX21"/>
-    <mergeCell ref="U20:AB20"/>
-    <mergeCell ref="U21:AB21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="BU18:BV18"/>
-    <mergeCell ref="BW18:BX18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="BU19:BV19"/>
-    <mergeCell ref="BW19:BX19"/>
-    <mergeCell ref="U18:AB18"/>
-    <mergeCell ref="U19:AB19"/>
-    <mergeCell ref="U3:AB4"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="U11:AB11"/>
-    <mergeCell ref="U12:AB12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="U26:AB26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="BU24:BV24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="BU25:BV25"/>
-    <mergeCell ref="U24:AB24"/>
-    <mergeCell ref="U25:AB25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="BU22:BV22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="BU23:BV23"/>
-    <mergeCell ref="U22:AB22"/>
-    <mergeCell ref="U23:AB23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="BU20:BV20"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="BU7:BV7"/>
-    <mergeCell ref="BW7:BX7"/>
     <mergeCell ref="U28:AB28"/>
     <mergeCell ref="D11:K12"/>
     <mergeCell ref="AC11:BC12"/>
@@ -3717,12 +3713,120 @@
     <mergeCell ref="BW22:BX22"/>
     <mergeCell ref="BW23:BX23"/>
     <mergeCell ref="BW20:BX20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="BU22:BV22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="BU23:BV23"/>
+    <mergeCell ref="U22:AB22"/>
+    <mergeCell ref="U23:AB23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="BU20:BV20"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="U26:AB26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="BU24:BV24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="BU25:BV25"/>
+    <mergeCell ref="U24:AB24"/>
+    <mergeCell ref="U25:AB25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="BU21:BV21"/>
+    <mergeCell ref="BW21:BX21"/>
+    <mergeCell ref="U20:AB20"/>
+    <mergeCell ref="U21:AB21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="BU18:BV18"/>
+    <mergeCell ref="BW18:BX18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="BU19:BV19"/>
+    <mergeCell ref="BW19:BX19"/>
+    <mergeCell ref="U18:AB18"/>
+    <mergeCell ref="U19:AB19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="BU16:BV16"/>
+    <mergeCell ref="BW16:BX16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="BU17:BV17"/>
+    <mergeCell ref="BW17:BX17"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="BU14:BV14"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="BU15:BV15"/>
+    <mergeCell ref="BW15:BX15"/>
+    <mergeCell ref="U14:AB14"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="BU13:BV13"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="BU10:BV10"/>
+    <mergeCell ref="BW10:BX10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="U10:AB10"/>
+    <mergeCell ref="U11:AB11"/>
+    <mergeCell ref="U12:AB12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="U9:AB9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="BU7:BV7"/>
+    <mergeCell ref="BW7:BX7"/>
+    <mergeCell ref="D3:K4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BU3:BX3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BD3:BT4"/>
+    <mergeCell ref="AC3:BC4"/>
+    <mergeCell ref="L3:T4"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="U3:AB4"/>
+    <mergeCell ref="U5:AB5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU5:BX28" xr:uid="{56190F87-004B-4A25-8A70-65902399D8E7}">
       <formula1>"－,✕,〇"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EE3946-7878-4547-AFF1-421EEA2CACC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.88671875" style="8"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3754,138 +3858,138 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="76" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="76" t="s">
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77" t="s">
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="77"/>
+      <c r="W8" s="74"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77" t="s">
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="77"/>
+      <c r="W9" s="74"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
@@ -3986,45 +4090,45 @@
       </c>
     </row>
     <row r="26" spans="4:40" x14ac:dyDescent="0.3">
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66" t="s">
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="68"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="67"/>
     </row>
     <row r="28" spans="4:40" x14ac:dyDescent="0.3">
       <c r="G28" s="8" t="s">
@@ -4129,12 +4233,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:W7"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AN26"/>
     <mergeCell ref="D8:J9"/>
@@ -4143,6 +4241,12 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="V9:W9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:W7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:W9" xr:uid="{B31173A7-6219-4803-BC38-A7A4416D8355}">
@@ -4154,11 +4258,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E65F96-A9DD-4641-AD51-FBE603570BF8}">
+  <dimension ref="B2:AG38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="74"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="74"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E14" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="F18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="G28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="H29" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="12"/>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="H30" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="12"/>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="H31" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="12"/>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="H32" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="12"/>
+    </row>
+    <row r="33" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="H33" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="12"/>
+    </row>
+    <row r="35" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="G35" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="G36" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="7:33" x14ac:dyDescent="0.3">
+      <c r="G38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="D8:J10"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:W7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:W10" xr:uid="{11D874F1-DA0A-4866-B2F5-5DCB822FA83B}">
+      <formula1>"〇,✕"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDEA1F-0834-42B4-A44C-F6A1B8A7C63D}">
+  <dimension ref="B2:AF24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="74"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="E14" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="F21" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="F22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="F24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="D8:J9"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:W7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:W9" xr:uid="{30BD149D-EFD9-4DBC-A7A0-85571D5BEF7F}">
+      <formula1>"〇,✕"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD46C845-DE4F-42AD-AD1D-EE7086E10DA0}">
+  <dimension ref="B2:AT35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D6" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D7" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="74"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO13" s="16"/>
+      <c r="AQ13" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AO14" s="16"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO15" s="16"/>
+      <c r="AQ15" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO16" s="16"/>
+    </row>
+    <row r="17" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="F17" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="67"/>
+      <c r="AO17" s="16"/>
+      <c r="AQ17" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO18" s="16"/>
+      <c r="AS18" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="F19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" s="16"/>
+    </row>
+    <row r="20" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="G20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO20" s="16"/>
+      <c r="AQ20" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO21" s="16"/>
+      <c r="AS21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO22" s="16"/>
+    </row>
+    <row r="23" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="G23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="15"/>
+      <c r="AO23" s="16"/>
+      <c r="AS23" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO24" s="16"/>
+    </row>
+    <row r="25" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO25" s="16"/>
+      <c r="AS25" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO26" s="16"/>
+      <c r="AT26" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO27" s="16"/>
+    </row>
+    <row r="28" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO28" s="16"/>
+    </row>
+    <row r="29" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO29" s="16"/>
+    </row>
+    <row r="30" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO30" s="16"/>
+    </row>
+    <row r="31" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO31" s="16"/>
+    </row>
+    <row r="32" spans="6:46" x14ac:dyDescent="0.3">
+      <c r="AO32" s="16"/>
+    </row>
+    <row r="33" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO33" s="16"/>
+    </row>
+    <row r="34" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO34" s="16"/>
+    </row>
+    <row r="35" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO35" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:X17"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:W4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:W6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:W7" xr:uid="{623A1C10-4B78-4DE2-8CDF-D647650BAA4A}">
+      <formula1>"〇,✕"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C74E36-48F7-46F3-9DA5-C8835508A2B6}">
   <dimension ref="C2:AH47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AN44" sqref="AN44"/>
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4180,192 +5490,192 @@
       </c>
     </row>
     <row r="5" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="76" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
     </row>
     <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="76" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
     </row>
     <row r="7" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="76" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
     </row>
     <row r="8" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="76" t="s">
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77" t="s">
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="77"/>
+      <c r="X8" s="74"/>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77" t="s">
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="77"/>
+      <c r="X9" s="74"/>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="76" t="s">
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="77"/>
+      <c r="X10" s="74"/>
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77" t="s">
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="77"/>
+      <c r="X11" s="74"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
@@ -4381,14 +5691,14 @@
       </c>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="13" t="s">
         <v>62</v>
       </c>
@@ -4414,28 +5724,28 @@
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="70" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="82" t="s">
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="84"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="10" t="s">
         <v>50</v>
       </c>
@@ -4451,24 +5761,24 @@
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="82" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="83"/>
-      <c r="U17" s="84"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="77"/>
       <c r="V17" s="10" t="s">
         <v>51</v>
       </c>
@@ -4516,29 +5826,29 @@
       </c>
     </row>
     <row r="24" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66" t="s">
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="68"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="67"/>
     </row>
     <row r="26" spans="4:34" x14ac:dyDescent="0.3">
       <c r="G26" s="8" t="s">
@@ -4751,12 +6061,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:X5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:X6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="L7:X7"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:Y24"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="L16:R17"/>
+    <mergeCell ref="F16:K17"/>
     <mergeCell ref="E8:K11"/>
     <mergeCell ref="L10:R11"/>
     <mergeCell ref="F15:K15"/>
@@ -4769,12 +6079,12 @@
     <mergeCell ref="S8:V8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="S9:V9"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:Y24"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="L16:R17"/>
-    <mergeCell ref="F16:K17"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:X5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:X6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="L7:X7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8:X11" xr:uid="{7B1E6E1E-CAEB-4708-98B2-C9E36828B8D5}">
@@ -4785,301 +6095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDEA1F-0834-42B4-A44C-F6A1B8A7C63D}">
-  <dimension ref="B2:AF24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="2.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="77"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="77"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="E14" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="F21" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="F22" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="F24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="D8:J9"/>
-    <mergeCell ref="K8:Q9"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:W9" xr:uid="{30BD149D-EFD9-4DBC-A7A0-85571D5BEF7F}">
-      <formula1>"〇,✕"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3365EAB-9456-44BD-B29B-32D305FB0C3E}">
   <dimension ref="B2:AI50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:X28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5101,112 +6122,112 @@
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="76" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="66" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="76" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="77" t="s">
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="77"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E9" s="8" t="s">
@@ -5217,298 +6238,298 @@
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="77" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="81" t="s">
+      <c r="Q10" s="74"/>
+      <c r="R10" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="72"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="70"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="77" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="87"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="77" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="80"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="87"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="77" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="75"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="73"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="77" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="66" t="s">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="68"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="77" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="70" t="s">
+      <c r="Q15" s="74"/>
+      <c r="R15" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="72"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="70"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="77" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="80"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="87"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="77" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="80"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="77" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="75"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="73"/>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
@@ -5556,29 +6577,29 @@
       </c>
     </row>
     <row r="28" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66" t="s">
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="68"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
     </row>
     <row r="30" spans="3:31" x14ac:dyDescent="0.3">
       <c r="F30" s="8" t="s">
@@ -5700,29 +6721,29 @@
       </c>
     </row>
     <row r="44" spans="5:34" x14ac:dyDescent="0.3">
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="66" t="s">
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="68"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="67"/>
     </row>
     <row r="46" spans="5:34" x14ac:dyDescent="0.3">
       <c r="H46" s="8" t="s">
@@ -5776,12 +6797,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="K4:W4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:Z44"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R14:AE14"/>
+    <mergeCell ref="R15:AE18"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="R7:U7"/>
@@ -5795,22 +6826,12 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R14:AE14"/>
-    <mergeCell ref="R15:AE18"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:X28"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:Z44"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:W4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:W6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:W7 P10:Q18" xr:uid="{EB60C672-534B-4EB5-9069-B4203EE7005E}">
@@ -5821,11 +6842,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EE0362-3DD0-47B1-BDE1-E057378B0354}">
+  <dimension ref="B2:AH32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AN23" sqref="AN23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E8" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="74"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="F12" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="F13" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="12"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="F19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="G20" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="67"/>
+    </row>
+    <row r="22" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="G22" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="H24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="H26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+    </row>
+    <row r="28" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="F28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="G29" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="H30" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="5:34" x14ac:dyDescent="0.3">
+      <c r="H32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:Y20"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L5:X5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:X6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="L7:X7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8:X8" xr:uid="{41233AF4-DFAF-4B2E-8287-6906F971117F}">
+      <formula1>"〇,✕"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B9BC6B-D0E0-44C1-B45B-9B8BB913AA6D}">
   <dimension ref="B2:AR34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="BL15" sqref="BL15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5846,112 +7268,112 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="76" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="66" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="76" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="77" t="s">
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="77"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
@@ -6015,29 +7437,29 @@
       </c>
     </row>
     <row r="17" spans="6:44" x14ac:dyDescent="0.3">
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="68"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="67"/>
       <c r="AM17" s="16"/>
       <c r="AQ17" s="8" t="s">
         <v>123</v>
@@ -6153,18 +7575,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:X17"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="K4:W4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="K5:W5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:W6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:X17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:W7" xr:uid="{6B312334-7D07-430C-92EB-B575B6F03705}">
@@ -6173,936 +7595,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD46C845-DE4F-42AD-AD1D-EE7086E10DA0}">
-  <dimension ref="B2:AT35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="2.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D4" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-    </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-    </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-    </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="77"/>
-    </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO13" s="16"/>
-      <c r="AQ13" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="AO14" s="16"/>
-    </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO15" s="16"/>
-      <c r="AQ15" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO16" s="16"/>
-    </row>
-    <row r="17" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="F17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="68"/>
-      <c r="AO17" s="16"/>
-      <c r="AQ17" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO18" s="16"/>
-      <c r="AS18" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO19" s="16"/>
-    </row>
-    <row r="20" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="G20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO20" s="16"/>
-      <c r="AQ20" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO21" s="16"/>
-      <c r="AS21" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO22" s="16"/>
-    </row>
-    <row r="23" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="G23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="15"/>
-      <c r="AO23" s="16"/>
-      <c r="AS23" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO24" s="16"/>
-    </row>
-    <row r="25" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO25" s="16"/>
-      <c r="AS25" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO26" s="16"/>
-      <c r="AT26" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO27" s="16"/>
-    </row>
-    <row r="28" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO28" s="16"/>
-    </row>
-    <row r="29" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO29" s="16"/>
-    </row>
-    <row r="30" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO30" s="16"/>
-    </row>
-    <row r="31" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO31" s="16"/>
-    </row>
-    <row r="32" spans="6:46" x14ac:dyDescent="0.3">
-      <c r="AO32" s="16"/>
-    </row>
-    <row r="33" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO33" s="16"/>
-    </row>
-    <row r="34" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO34" s="16"/>
-    </row>
-    <row r="35" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO35" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="K4:W4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:X17"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:W7"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:W7" xr:uid="{623A1C10-4B78-4DE2-8CDF-D647650BAA4A}">
-      <formula1>"〇,✕"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E65F96-A9DD-4641-AD51-FBE603570BF8}">
-  <dimension ref="B2:AG38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:T14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="2.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D6" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="77"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="77"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="77"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="E14" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="E15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="F16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="F17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="F18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="F19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="E26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="G28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="H29" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="H30" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="12"/>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="H31" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="H32" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="12"/>
-    </row>
-    <row r="33" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="H33" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="12"/>
-    </row>
-    <row r="35" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="G35" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="G36" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="7:33" x14ac:dyDescent="0.3">
-      <c r="G38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="D8:J10"/>
-    <mergeCell ref="K8:Q9"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:W10" xr:uid="{11D874F1-DA0A-4866-B2F5-5DCB822FA83B}">
-      <formula1>"〇,✕"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EE3946-7878-4547-AFF1-421EEA2CACC2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="2.88671875" style="8"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>